--- a/output/FreqTheo1Citptile0.9alpha0.05power0.8N1000/FreqTheo1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/FreqTheo1Citptile0.9alpha0.05power0.8N1000/FreqTheo1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqTheo1Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB03748-2670-4038-89C5-B1CA1981FE74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5903C1-A7BB-49A0-9E67-73037285D348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{E7CE2BA8-2ADF-4EF7-806E-A100D0854E7B}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{B2A1596D-78DB-4703-8C2A-96517CB3893B}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B0994-CAEF-418B-9348-60B95CC1FFD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE05EF-5A20-4FD2-A716-E37430F608B8}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.9579152897079669E-2</v>
+        <v>4.9644077596912715E-2</v>
       </c>
       <c r="D2">
-        <v>0.80700112086855325</v>
+        <v>0.80710424214941401</v>
       </c>
       <c r="E2">
-        <v>8.1769999999999996</v>
+        <v>8.173</v>
       </c>
       <c r="F2">
-        <v>143.595</v>
+        <v>143.76599999999999</v>
       </c>
       <c r="G2">
-        <v>33.386000000000003</v>
+        <v>33.56</v>
       </c>
       <c r="H2">
-        <v>4.7110000000000003</v>
+        <v>4.7539999999999996</v>
       </c>
       <c r="I2">
-        <v>4.758</v>
+        <v>5.0810000000000004</v>
       </c>
       <c r="J2">
-        <v>4.9655512655512692E-2</v>
+        <v>4.8142803698359257E-2</v>
       </c>
       <c r="K2">
-        <v>0.80583219880460411</v>
+        <v>0.80665040903704677</v>
       </c>
       <c r="L2">
-        <v>43.594999999999999</v>
+        <v>43.765999999999998</v>
       </c>
       <c r="M2">
-        <v>143.595</v>
+        <v>143.76599999999999</v>
       </c>
       <c r="N2">
-        <v>4.9829999999999997</v>
+        <v>4.5339999999999998</v>
       </c>
       <c r="O2">
-        <v>4.5810000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.0234512555078999E-2</v>
+        <v>5.2195579972023488E-2</v>
       </c>
       <c r="D3">
-        <v>0.80707607977064066</v>
+        <v>0.8100170689821985</v>
       </c>
       <c r="E3">
-        <v>8.17</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="F3">
-        <v>143.667</v>
+        <v>143.93600000000001</v>
       </c>
       <c r="G3">
-        <v>33.369999999999997</v>
+        <v>33.652000000000001</v>
       </c>
       <c r="H3">
-        <v>3.331</v>
+        <v>3.4870000000000001</v>
       </c>
       <c r="I3">
-        <v>3.3849999999999998</v>
+        <v>3.452</v>
       </c>
       <c r="J3">
-        <v>3.4206695778748179E-2</v>
+        <v>5.6201550387596902E-2</v>
       </c>
       <c r="K3">
-        <v>0.81189297933249416</v>
+        <v>0.80917898319413428</v>
       </c>
       <c r="L3">
-        <v>43.667000000000002</v>
+        <v>43.936</v>
       </c>
       <c r="M3">
-        <v>104.39400000000001</v>
+        <v>104.447</v>
       </c>
       <c r="N3">
-        <v>3.355</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="O3">
-        <v>3.3460000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.8461202697189378E-2</v>
+        <v>4.9208736139267316E-2</v>
       </c>
       <c r="D4">
-        <v>0.81172547516317051</v>
+        <v>0.80554951202278147</v>
       </c>
       <c r="E4">
-        <v>8.2089999999999996</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="F4">
-        <v>143.97900000000001</v>
+        <v>143.67699999999999</v>
       </c>
       <c r="G4">
-        <v>33.665999999999997</v>
+        <v>33.533999999999999</v>
       </c>
       <c r="H4">
-        <v>4.8520000000000003</v>
+        <v>4.9329999999999998</v>
       </c>
       <c r="I4">
-        <v>4.665</v>
+        <v>4.5960000000000001</v>
       </c>
       <c r="J4">
-        <v>6.2785388127853892E-2</v>
+        <v>3.7527593818984552E-2</v>
       </c>
       <c r="K4">
-        <v>0.80570164459053273</v>
+        <v>0.80624788124788116</v>
       </c>
       <c r="L4">
-        <v>43.978999999999999</v>
+        <v>43.677</v>
       </c>
       <c r="M4">
-        <v>106.264</v>
+        <v>106.18</v>
       </c>
       <c r="N4">
-        <v>4.806</v>
+        <v>4.7229999999999999</v>
       </c>
       <c r="O4">
-        <v>4.7839999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.7080000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.9948726431016534E-2</v>
+        <v>5.0100961200887972E-2</v>
       </c>
       <c r="D5">
-        <v>0.8038335525450091</v>
+        <v>0.80586212794299705</v>
       </c>
       <c r="E5">
-        <v>8.1739999999999995</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="F5">
-        <v>143.41800000000001</v>
+        <v>143.71100000000001</v>
       </c>
       <c r="G5">
-        <v>33.131999999999998</v>
+        <v>33.399000000000001</v>
       </c>
       <c r="H5">
-        <v>8.4060000000000006</v>
+        <v>7.9279999999999999</v>
       </c>
       <c r="I5">
-        <v>7.9960000000000004</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>5.4767533490937749E-2</v>
+        <v>3.5219399538106239E-2</v>
       </c>
       <c r="K5">
-        <v>0.80352522811296212</v>
+        <v>0.80609014183271088</v>
       </c>
       <c r="L5">
-        <v>43.417999999999999</v>
+        <v>43.710999999999999</v>
       </c>
       <c r="M5">
-        <v>110.229</v>
+        <v>110.387</v>
       </c>
       <c r="N5">
-        <v>7.7919999999999998</v>
+        <v>7.94</v>
       </c>
       <c r="O5">
-        <v>7.7590000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.9180000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.0197794844925013E-2</v>
+        <v>7.6717898371446755E-2</v>
       </c>
       <c r="D6">
-        <v>0.86839127209324074</v>
+        <v>0.88523034434975523</v>
       </c>
       <c r="E6">
-        <v>8.19</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F6">
-        <v>147.80699999999999</v>
+        <v>149.05099999999999</v>
       </c>
       <c r="G6">
-        <v>38.670999999999999</v>
+        <v>40.323999999999998</v>
       </c>
       <c r="H6">
-        <v>5.7859999999999996</v>
+        <v>5.9169999999999998</v>
       </c>
       <c r="I6">
-        <v>5.3170000000000002</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="J6">
-        <v>7.6431898556251002E-2</v>
+        <v>7.4273715378009933E-2</v>
       </c>
       <c r="K6">
-        <v>0.86772153672195074</v>
+        <v>0.8860799904169081</v>
       </c>
       <c r="L6">
-        <v>47.807000000000002</v>
+        <v>49.051000000000002</v>
       </c>
       <c r="M6">
-        <v>147.80699999999999</v>
+        <v>149.05099999999999</v>
       </c>
       <c r="N6">
-        <v>5.4279999999999999</v>
+        <v>5.9379999999999997</v>
       </c>
       <c r="O6">
-        <v>5.694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.8758452807525308E-2</v>
+        <v>7.7183039448961904E-2</v>
       </c>
       <c r="D7">
-        <v>0.86466379301060581</v>
+        <v>0.88637864517715204</v>
       </c>
       <c r="E7">
-        <v>8.1950000000000003</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F7">
-        <v>147.358</v>
+        <v>149.02000000000001</v>
       </c>
       <c r="G7">
-        <v>38.460999999999999</v>
+        <v>40.32</v>
       </c>
       <c r="H7">
-        <v>3.9769999999999999</v>
+        <v>4.0979999999999999</v>
       </c>
       <c r="I7">
-        <v>4.0039999999999996</v>
+        <v>3.9689999999999999</v>
       </c>
       <c r="J7">
-        <v>5.9851088201603654E-2</v>
+        <v>9.0507726269315664E-2</v>
       </c>
       <c r="K7">
-        <v>0.87121174560568504</v>
+        <v>0.88576165060068435</v>
       </c>
       <c r="L7">
-        <v>47.357999999999997</v>
+        <v>49.02</v>
       </c>
       <c r="M7">
-        <v>104.741</v>
+        <v>105.03100000000001</v>
       </c>
       <c r="N7">
-        <v>3.8570000000000002</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="O7">
-        <v>3.835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.0714010141746372E-2</v>
+        <v>7.5718584904645475E-2</v>
       </c>
       <c r="D8">
-        <v>0.86699830488579066</v>
+        <v>0.88664906695775769</v>
       </c>
       <c r="E8">
-        <v>8.1739999999999995</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="F8">
-        <v>147.625</v>
+        <v>149.089</v>
       </c>
       <c r="G8">
-        <v>38.484999999999999</v>
+        <v>40.445</v>
       </c>
       <c r="H8">
-        <v>5.2729999999999997</v>
+        <v>5.98</v>
       </c>
       <c r="I8">
-        <v>5.45</v>
+        <v>6.3390000000000004</v>
       </c>
       <c r="J8">
-        <v>6.4861460957178846E-2</v>
+        <v>9.3648867313915862E-2</v>
       </c>
       <c r="K8">
-        <v>0.86646685535574453</v>
+        <v>0.88194729861396537</v>
       </c>
       <c r="L8">
-        <v>47.625</v>
+        <v>49.088999999999999</v>
       </c>
       <c r="M8">
-        <v>106.584</v>
+        <v>106.979</v>
       </c>
       <c r="N8">
-        <v>5.3109999999999999</v>
+        <v>5.7030000000000003</v>
       </c>
       <c r="O8">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.6539999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.2471561698323139E-2</v>
+        <v>7.471772862879357E-2</v>
       </c>
       <c r="D9">
-        <v>0.8663583292051299</v>
+        <v>0.88498917362520524</v>
       </c>
       <c r="E9">
-        <v>8.1969999999999992</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="F9">
-        <v>147.88800000000001</v>
+        <v>148.78100000000001</v>
       </c>
       <c r="G9">
-        <v>38.648000000000003</v>
+        <v>40.231999999999999</v>
       </c>
       <c r="H9">
-        <v>8.9600000000000009</v>
+        <v>8.9689999999999994</v>
       </c>
       <c r="I9">
-        <v>8.6820000000000004</v>
+        <v>8.452</v>
       </c>
       <c r="J9">
-        <v>5.8664259927797835E-2</v>
+        <v>8.1771720613287913E-2</v>
       </c>
       <c r="K9">
-        <v>0.8624512729143915</v>
+        <v>0.87880869595231037</v>
       </c>
       <c r="L9">
-        <v>47.887999999999998</v>
+        <v>48.780999999999999</v>
       </c>
       <c r="M9">
-        <v>111.294</v>
+        <v>111.538</v>
       </c>
       <c r="N9">
-        <v>9.0779999999999994</v>
+        <v>9.4239999999999995</v>
       </c>
       <c r="O9">
-        <v>9.0269999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3610000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.9766214180284127E-2</v>
+        <v>0.10243691593213265</v>
       </c>
       <c r="D10">
-        <v>0.95328237725912768</v>
+        <v>0.96748770967190523</v>
       </c>
       <c r="E10">
-        <v>8.17</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="F10">
-        <v>153.67099999999999</v>
+        <v>154.80799999999999</v>
       </c>
       <c r="G10">
-        <v>47.093000000000004</v>
+        <v>48.816000000000003</v>
       </c>
       <c r="H10">
-        <v>6.2160000000000002</v>
+        <v>6.9450000000000003</v>
       </c>
       <c r="I10">
-        <v>6.6079999999999997</v>
+        <v>7.3120000000000003</v>
       </c>
       <c r="J10">
-        <v>8.8270999449247337E-2</v>
+        <v>9.7909891290031817E-2</v>
       </c>
       <c r="K10">
-        <v>0.9544981096469688</v>
+        <v>0.96895602456638286</v>
       </c>
       <c r="L10">
-        <v>53.670999999999999</v>
+        <v>54.808</v>
       </c>
       <c r="M10">
-        <v>153.67099999999999</v>
+        <v>154.80799999999999</v>
       </c>
       <c r="N10">
-        <v>6.7750000000000004</v>
+        <v>6.819</v>
       </c>
       <c r="O10">
-        <v>7.0060000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.6559999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9.8854865409537349E-2</v>
+        <v>0.10466067803700209</v>
       </c>
       <c r="D11">
-        <v>0.9542913725363017</v>
+        <v>0.96901931149829157</v>
       </c>
       <c r="E11">
-        <v>8.19</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F11">
-        <v>153.64599999999999</v>
+        <v>154.63399999999999</v>
       </c>
       <c r="G11">
-        <v>47.128999999999998</v>
+        <v>48.48</v>
       </c>
       <c r="H11">
-        <v>4.657</v>
+        <v>4.9589999999999996</v>
       </c>
       <c r="I11">
-        <v>4.7309999999999999</v>
+        <v>4.9930000000000003</v>
       </c>
       <c r="J11">
-        <v>7.5827280064568195E-2</v>
+        <v>7.9944178628389165E-2</v>
       </c>
       <c r="K11">
-        <v>0.95916125833377619</v>
+        <v>0.97159718694322506</v>
       </c>
       <c r="L11">
-        <v>53.646000000000001</v>
+        <v>54.634</v>
       </c>
       <c r="M11">
-        <v>105.435</v>
+        <v>105.565</v>
       </c>
       <c r="N11">
-        <v>4.7569999999999997</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="O11">
-        <v>4.7169999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.8860000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>9.9870792760949539E-2</v>
+        <v>0.10297371591668587</v>
       </c>
       <c r="D12">
-        <v>0.95400520065209338</v>
+        <v>0.96833594794039302</v>
       </c>
       <c r="E12">
-        <v>8.1940000000000008</v>
+        <v>8.1769999999999996</v>
       </c>
       <c r="F12">
-        <v>153.739</v>
+        <v>154.57599999999999</v>
       </c>
       <c r="G12">
-        <v>47.195</v>
+        <v>48.576000000000001</v>
       </c>
       <c r="H12">
-        <v>6.6440000000000001</v>
+        <v>6.7210000000000001</v>
       </c>
       <c r="I12">
-        <v>6.1829999999999998</v>
+        <v>6.4960000000000004</v>
       </c>
       <c r="J12">
-        <v>0.10108481262327419</v>
+        <v>9.4986168741355459E-2</v>
       </c>
       <c r="K12">
-        <v>0.95745487012987074</v>
+        <v>0.96934135586635595</v>
       </c>
       <c r="L12">
-        <v>53.738999999999997</v>
+        <v>54.576000000000001</v>
       </c>
       <c r="M12">
-        <v>107.774</v>
+        <v>107.876</v>
       </c>
       <c r="N12">
-        <v>6.827</v>
+        <v>7.0309999999999997</v>
       </c>
       <c r="O12">
-        <v>6.7539999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.9660000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>9.8976572612628808E-2</v>
+        <v>0.10676687178942722</v>
       </c>
       <c r="D13">
-        <v>0.95672947214046267</v>
+        <v>0.96926261352211363</v>
       </c>
       <c r="E13">
-        <v>8.1890000000000001</v>
+        <v>8.1780000000000008</v>
       </c>
       <c r="F13">
-        <v>153.792</v>
+        <v>154.905</v>
       </c>
       <c r="G13">
-        <v>47.222999999999999</v>
+        <v>48.692999999999998</v>
       </c>
       <c r="H13">
-        <v>9.7579999999999991</v>
+        <v>12.515000000000001</v>
       </c>
       <c r="I13">
-        <v>10.856</v>
+        <v>11.177</v>
       </c>
       <c r="J13">
-        <v>0.11479885057471263</v>
+        <v>0.10818965517241383</v>
       </c>
       <c r="K13">
-        <v>0.95464199928468407</v>
+        <v>0.96973036460592887</v>
       </c>
       <c r="L13">
-        <v>53.792000000000002</v>
+        <v>54.905000000000001</v>
       </c>
       <c r="M13">
-        <v>112.685</v>
+        <v>112.95699999999999</v>
       </c>
       <c r="N13">
-        <v>11.166</v>
+        <v>11.535</v>
       </c>
       <c r="O13">
-        <v>11.048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.404999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11809828562935105</v>
+        <v>0.11892534532002899</v>
       </c>
       <c r="D14">
-        <v>0.97841693720016754</v>
+        <v>0.99100391450142367</v>
       </c>
       <c r="E14">
-        <v>8.1910000000000007</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="F14">
-        <v>155.97399999999999</v>
+        <v>156.404</v>
       </c>
       <c r="G14">
-        <v>49.796999999999997</v>
+        <v>50.741999999999997</v>
       </c>
       <c r="H14">
-        <v>7.4420000000000002</v>
+        <v>7.202</v>
       </c>
       <c r="I14">
-        <v>7.3710000000000004</v>
+        <v>7.4550000000000001</v>
       </c>
       <c r="J14">
-        <v>0.1158594484196292</v>
+        <v>0.1216608105496997</v>
       </c>
       <c r="K14">
-        <v>0.98025222016696367</v>
+        <v>0.98983400626004692</v>
       </c>
       <c r="L14">
-        <v>55.973999999999997</v>
+        <v>56.404000000000003</v>
       </c>
       <c r="M14">
-        <v>155.97399999999999</v>
+        <v>156.404</v>
       </c>
       <c r="N14">
-        <v>7.0759999999999996</v>
+        <v>7.3410000000000002</v>
       </c>
       <c r="O14">
-        <v>7.2140000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.1790000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.1191522372610983</v>
+        <v>0.11752976547397881</v>
       </c>
       <c r="D15">
-        <v>0.97773034054539454</v>
+        <v>0.9910788597548208</v>
       </c>
       <c r="E15">
-        <v>8.17</v>
+        <v>8.1940000000000008</v>
       </c>
       <c r="F15">
-        <v>155.91399999999999</v>
+        <v>156.548</v>
       </c>
       <c r="G15">
-        <v>49.720999999999997</v>
+        <v>51.012999999999998</v>
       </c>
       <c r="H15">
-        <v>5.05</v>
+        <v>5.1210000000000004</v>
       </c>
       <c r="I15">
-        <v>5.0279999999999996</v>
+        <v>5.1109999999999998</v>
       </c>
       <c r="J15">
-        <v>0.1194638694638695</v>
+        <v>0.10736800630417651</v>
       </c>
       <c r="K15">
-        <v>0.980389545259154</v>
+        <v>0.98895392557364359</v>
       </c>
       <c r="L15">
-        <v>55.914000000000001</v>
+        <v>56.548000000000002</v>
       </c>
       <c r="M15">
-        <v>105.667</v>
+        <v>105.681</v>
       </c>
       <c r="N15">
-        <v>5.0620000000000003</v>
+        <v>5.1360000000000001</v>
       </c>
       <c r="O15">
-        <v>4.9909999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11537943145040315</v>
+        <v>0.11995540633948878</v>
       </c>
       <c r="D16">
-        <v>0.98043262197682024</v>
+        <v>0.99096104043937716</v>
       </c>
       <c r="E16">
-        <v>8.1929999999999996</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="F16">
-        <v>155.869</v>
+        <v>156.749</v>
       </c>
       <c r="G16">
-        <v>49.805</v>
+        <v>51.207000000000001</v>
       </c>
       <c r="H16">
-        <v>7.2409999999999997</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="I16">
-        <v>7.633</v>
+        <v>7.1379999999999999</v>
       </c>
       <c r="J16">
-        <v>0.13992869875222816</v>
+        <v>0.11528973034997134</v>
       </c>
       <c r="K16">
-        <v>0.97925671273171289</v>
+        <v>0.98985498112998116</v>
       </c>
       <c r="L16">
-        <v>55.869</v>
+        <v>56.749000000000002</v>
       </c>
       <c r="M16">
-        <v>108.104</v>
+        <v>108.31100000000001</v>
       </c>
       <c r="N16">
-        <v>7.2210000000000001</v>
+        <v>7.4770000000000003</v>
       </c>
       <c r="O16">
-        <v>7.1029999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.3739999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.11592880401009938</v>
+        <v>0.11872876605133117</v>
       </c>
       <c r="D17">
-        <v>0.97862858758106519</v>
+        <v>0.99019341955146667</v>
       </c>
       <c r="E17">
-        <v>8.1910000000000007</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="F17">
-        <v>155.761</v>
+        <v>156.26300000000001</v>
       </c>
       <c r="G17">
-        <v>49.698999999999998</v>
+        <v>50.698999999999998</v>
       </c>
       <c r="H17">
-        <v>13.067</v>
+        <v>12.134</v>
       </c>
       <c r="I17">
-        <v>12.016</v>
+        <v>11.17</v>
       </c>
       <c r="J17">
-        <v>0.10417224453369035</v>
+        <v>0.13212401055408968</v>
       </c>
       <c r="K17">
-        <v>0.98046750484637368</v>
+        <v>0.99026358088505861</v>
       </c>
       <c r="L17">
-        <v>55.761000000000003</v>
+        <v>56.262999999999998</v>
       </c>
       <c r="M17">
-        <v>113.28100000000001</v>
+        <v>113.334</v>
       </c>
       <c r="N17">
-        <v>11.840999999999999</v>
+        <v>11.987</v>
       </c>
       <c r="O17">
-        <v>11.691000000000001</v>
+        <v>11.816000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC93F0C6-360F-4D14-B38B-D8FE33E67CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5AD6B1-32F9-413C-8C98-8F6257C80661}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
